--- a/ProEngApp/画面設計.xlsx
+++ b/ProEngApp/画面設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ProEngAppNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ProEngApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F4FACF-BCBE-4933-A5E5-A75140DEF792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2DE9CA-23AF-49EA-8174-B337A0A23655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -904,7 +905,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>139992</xdr:rowOff>
+      <xdr:rowOff>149517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1822,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1838,6 +1839,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
